--- a/MIDITeensy4.1/MIDITeensy4.1_bom.xlsx
+++ b/MIDITeensy4.1/MIDITeensy4.1_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MIDITeensy4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071788B-A5C1-CB48-A927-83AEE37E8406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E6FC6-F78D-1C4B-BA8B-F308108AC16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MIDITeensy3" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
   </sheetPr>
   <dimension ref="A2:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1079,7 @@
         <v>74</v>
       </c>
       <c r="E25" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">

--- a/MIDITeensy4.1/MIDITeensy4.1_bom.xlsx
+++ b/MIDITeensy4.1/MIDITeensy4.1_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MIDITeensy4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E6FC6-F78D-1C4B-BA8B-F308108AC16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C753459-5E51-5F4C-82AF-83075C344AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>ICs:</t>
   </si>
   <si>
-    <t>Programmed Microcontroller</t>
-  </si>
-  <si>
     <t>Optocoupler</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Teensy4.1 MIDI Breakout board</t>
   </si>
   <si>
-    <t>Teensy4.1</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>UE27AC54100</t>
+  </si>
+  <si>
+    <t>Teensy4.1 at PJRC.COM</t>
+  </si>
+  <si>
+    <t>Programmed Microcontroller (not included)</t>
   </si>
 </sst>
 </file>
@@ -842,14 +842,14 @@
   <dimension ref="A2:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
@@ -873,7 +873,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -910,7 +910,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -929,13 +929,13 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -944,10 +944,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -968,10 +968,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>104</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -992,13 +992,13 @@
     <row r="17" spans="1:23" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>16</v>
@@ -1007,13 +1007,13 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3">
         <v>8</v>
@@ -1022,13 +1022,13 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1046,7 +1046,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1070,13 +1070,13 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>16</v>
@@ -1085,13 +1085,13 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1101,10 +1101,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -1114,10 +1114,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="32" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="35" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2309,6 +2309,6 @@
     <mergeCell ref="A32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="54" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
 </worksheet>
 </file>